--- a/THISPAGE2.xlsx
+++ b/THISPAGE2.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -462,87 +462,327 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0</v>
+        <v>110.3239416666667</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>121.19250833333328</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>114.92755000000002</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>112.8347666666667</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>114.96135</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>116.99387500000003</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>110.36307500000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>107.76883333333328</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>107.69555833333332</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>107.13760833333335</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>117.56738333333337</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>130.90435000000005</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>132.50386666666662</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>133.10620833333334</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>131.09237500000003</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>126.48266666666676</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>127.8323166666667</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>127.82214166666667</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>114.99593333333328</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>108.29385000000002</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>108.38619166666665</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>108.00573333333331</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>119.88196666666663</v>
       </c>
       <c r="X2">
-        <v>958.0532534246561</v>
+        <v>135.37443333333334</v>
       </c>
       <c r="Y2" t="str">
-        <v>Feb 20</v>
+        <v>Oct 13</v>
       </c>
       <c r="Z2" t="str">
-        <v>EXCLUDED</v>
+        <v>ASD</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.16339999999999985</v>
+      </c>
+      <c r="B3">
+        <v>0.1573999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.15980000000000003</v>
+      </c>
+      <c r="D3">
+        <v>0.167</v>
+      </c>
+      <c r="E3">
+        <v>81.27112499999996</v>
+      </c>
+      <c r="F3">
+        <v>106.41923333333334</v>
+      </c>
+      <c r="G3">
+        <v>108.49408333333321</v>
+      </c>
+      <c r="H3">
+        <v>111.40173333333331</v>
+      </c>
+      <c r="I3">
+        <v>110.75132499999995</v>
+      </c>
+      <c r="J3">
+        <v>109.80337499999996</v>
+      </c>
+      <c r="K3">
+        <v>112.4965666666667</v>
+      </c>
+      <c r="L3">
+        <v>123.3088833333333</v>
+      </c>
+      <c r="M3">
+        <v>126.35288333333331</v>
+      </c>
+      <c r="N3">
+        <v>128.71594999999996</v>
+      </c>
+      <c r="O3">
+        <v>122.2559833333333</v>
+      </c>
+      <c r="P3">
+        <v>113.42081666666667</v>
+      </c>
+      <c r="Q3">
+        <v>111.90842500000001</v>
+      </c>
+      <c r="R3">
+        <v>111.93246666666664</v>
+      </c>
+      <c r="S3">
+        <v>110.69230833333333</v>
+      </c>
+      <c r="T3">
+        <v>108.60558333333326</v>
+      </c>
+      <c r="U3">
+        <v>108.71266666666666</v>
+      </c>
+      <c r="V3">
+        <v>108.75377499999999</v>
+      </c>
+      <c r="W3">
+        <v>113.60685000000002</v>
+      </c>
+      <c r="X3">
+        <v>116.71262499999999</v>
+      </c>
+      <c r="Y3" t="str">
+        <v>Oct 16</v>
+      </c>
+      <c r="Z3" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>118.23525000000002</v>
+      </c>
+      <c r="B4">
+        <v>118.36789999999998</v>
+      </c>
+      <c r="C4">
+        <v>114.523825</v>
+      </c>
+      <c r="D4">
+        <v>116.92592499999995</v>
+      </c>
+      <c r="E4">
+        <v>110.11562499999995</v>
+      </c>
+      <c r="F4">
+        <v>106.86529999999998</v>
+      </c>
+      <c r="G4">
+        <v>107.85350000000001</v>
+      </c>
+      <c r="H4">
+        <v>108.40333333333338</v>
+      </c>
+      <c r="I4">
+        <v>108.68459166666659</v>
+      </c>
+      <c r="J4">
+        <v>108.2335999999999</v>
+      </c>
+      <c r="K4">
+        <v>113.26415833333327</v>
+      </c>
+      <c r="L4">
+        <v>115.41472500000005</v>
+      </c>
+      <c r="M4">
+        <v>120.23039166666659</v>
+      </c>
+      <c r="N4">
+        <v>122.98655000000004</v>
+      </c>
+      <c r="O4">
+        <v>121.93325833333331</v>
+      </c>
+      <c r="P4">
+        <v>112.63489166666668</v>
+      </c>
+      <c r="Q4">
+        <v>108.85305833333332</v>
+      </c>
+      <c r="R4">
+        <v>108.52583333333337</v>
+      </c>
+      <c r="S4">
+        <v>107.50100833333333</v>
+      </c>
+      <c r="T4">
+        <v>109.43346666666665</v>
+      </c>
+      <c r="U4">
+        <v>109.83313333333331</v>
+      </c>
+      <c r="V4">
+        <v>108.92305833333329</v>
+      </c>
+      <c r="W4">
+        <v>112.30198333333327</v>
+      </c>
+      <c r="X4">
+        <v>119.27021666666673</v>
+      </c>
+      <c r="Y4" t="str">
+        <v>Oct 17</v>
+      </c>
+      <c r="Z4" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>116.33902500000003</v>
+      </c>
+      <c r="B5">
+        <v>116.02852500000002</v>
+      </c>
+      <c r="C5">
+        <v>114.3085</v>
+      </c>
+      <c r="D5">
+        <v>108.83070833333342</v>
+      </c>
+      <c r="E5">
+        <v>107.2173166666667</v>
+      </c>
+      <c r="F5">
+        <v>105.2205916666666</v>
+      </c>
+      <c r="G5">
+        <v>107.40944999999998</v>
+      </c>
+      <c r="H5">
+        <v>109.37975000000002</v>
+      </c>
+      <c r="I5">
+        <v>108.874225</v>
+      </c>
+      <c r="J5">
+        <v>108.03260000000004</v>
+      </c>
+      <c r="K5">
+        <v>107.62276666666669</v>
+      </c>
+      <c r="L5">
+        <v>70.52966666666694</v>
+      </c>
+      <c r="M5">
+        <v>0.1478</v>
+      </c>
+      <c r="N5">
+        <v>0.14699999999999996</v>
+      </c>
+      <c r="O5">
+        <v>4.265602272727272</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="str">
+        <v>Oct 18</v>
+      </c>
+      <c r="Z5" t="str">
+        <v>ASD</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Z2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Z5"/>
   </ignoredErrors>
 </worksheet>
 </file>